--- a/pdf/tabla.xlsx
+++ b/pdf/tabla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/htdocs/cnt/LAIIProg/pdf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FA742B-6686-EC41-8151-1F61C57091E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668A3DF7-FA78-0A40-A5EC-38FEB51BC9D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{84076746-44DA-4E99-A93B-BCEF9597C15B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18612" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18613" uniqueCount="487">
   <si>
     <t>Estados</t>
   </si>
@@ -6125,6 +6125,23 @@
       <t>1</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>190</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -6517,8 +6534,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0D210ED6-33C7-4059-96D3-02444FD17408}" name="Tabla9" displayName="Tabla9" ref="A1:CP198" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
-  <autoFilter ref="A1:CP198" xr:uid="{C3A70699-EC72-4BBD-8E65-78D0EE04903B}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0D210ED6-33C7-4059-96D3-02444FD17408}" name="Tabla9" displayName="Tabla9" ref="A1:CP199" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+  <autoFilter ref="A1:CP199" xr:uid="{C3A70699-EC72-4BBD-8E65-78D0EE04903B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -7013,8 +7030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27AA5ABD-FADB-4A1B-9A28-8EA690270BF2}">
   <dimension ref="A1:CP200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="183" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="200" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11003,8 +11020,8 @@
       <c r="CM14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="CN14" s="2" t="s">
-        <v>71</v>
+      <c r="CN14" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="CO14" s="2" t="s">
         <v>71</v>
@@ -11287,8 +11304,8 @@
       <c r="CM15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="CN15" s="2" t="s">
-        <v>71</v>
+      <c r="CN15" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="CO15" s="2" t="s">
         <v>71</v>
@@ -63269,8 +63286,103 @@
         <v>71</v>
       </c>
     </row>
-    <row r="199" spans="1:94" x14ac:dyDescent="0.2">
-      <c r="A199" s="1"/>
+    <row r="199" spans="1:94" ht="17" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2"/>
+      <c r="I199" s="2"/>
+      <c r="J199" s="2"/>
+      <c r="K199" s="2"/>
+      <c r="L199" s="2"/>
+      <c r="M199" s="2"/>
+      <c r="N199" s="2"/>
+      <c r="O199" s="2"/>
+      <c r="P199" s="2"/>
+      <c r="Q199" s="2"/>
+      <c r="R199" s="2"/>
+      <c r="S199" s="2"/>
+      <c r="T199" s="2"/>
+      <c r="U199" s="2"/>
+      <c r="V199" s="2"/>
+      <c r="W199" s="2"/>
+      <c r="X199" s="2"/>
+      <c r="Y199" s="2"/>
+      <c r="Z199" s="2"/>
+      <c r="AA199" s="2"/>
+      <c r="AB199" s="2"/>
+      <c r="AC199" s="2"/>
+      <c r="AD199" s="2"/>
+      <c r="AE199" s="2"/>
+      <c r="AF199" s="2"/>
+      <c r="AG199" s="2"/>
+      <c r="AH199" s="2"/>
+      <c r="AI199" s="2"/>
+      <c r="AJ199" s="2"/>
+      <c r="AK199" s="2"/>
+      <c r="AL199" s="2"/>
+      <c r="AM199" s="2"/>
+      <c r="AN199" s="2"/>
+      <c r="AO199" s="2"/>
+      <c r="AP199" s="2"/>
+      <c r="AQ199" s="2"/>
+      <c r="AR199" s="2"/>
+      <c r="AS199" s="2"/>
+      <c r="AT199" s="2"/>
+      <c r="AU199" s="2"/>
+      <c r="AV199" s="2"/>
+      <c r="AW199" s="2"/>
+      <c r="AX199" s="2"/>
+      <c r="AY199" s="2"/>
+      <c r="AZ199" s="2"/>
+      <c r="BA199" s="2"/>
+      <c r="BB199" s="2"/>
+      <c r="BC199" s="2"/>
+      <c r="BD199" s="2"/>
+      <c r="BE199" s="2"/>
+      <c r="BF199" s="2"/>
+      <c r="BG199" s="2"/>
+      <c r="BH199" s="2"/>
+      <c r="BI199" s="2"/>
+      <c r="BJ199" s="2"/>
+      <c r="BK199" s="2"/>
+      <c r="BL199" s="2"/>
+      <c r="BM199" s="2"/>
+      <c r="BN199" s="2"/>
+      <c r="BO199" s="2"/>
+      <c r="BP199" s="2"/>
+      <c r="BQ199" s="2"/>
+      <c r="BR199" s="2"/>
+      <c r="BS199" s="2"/>
+      <c r="BT199" s="2"/>
+      <c r="BU199" s="2"/>
+      <c r="BV199" s="2"/>
+      <c r="BW199" s="2"/>
+      <c r="BX199" s="2"/>
+      <c r="BY199" s="2"/>
+      <c r="BZ199" s="2"/>
+      <c r="CA199" s="2"/>
+      <c r="CB199" s="2"/>
+      <c r="CC199" s="2"/>
+      <c r="CD199" s="2"/>
+      <c r="CE199" s="2"/>
+      <c r="CF199" s="2"/>
+      <c r="CG199" s="2"/>
+      <c r="CH199" s="2"/>
+      <c r="CI199" s="2"/>
+      <c r="CJ199" s="2"/>
+      <c r="CK199" s="2"/>
+      <c r="CL199" s="2"/>
+      <c r="CM199" s="2"/>
+      <c r="CN199" s="2"/>
+      <c r="CO199" s="2"/>
+      <c r="CP199" s="2"/>
     </row>
     <row r="200" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>

--- a/pdf/tabla.xlsx
+++ b/pdf/tabla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/htdocs/cnt/LAIIProg/pdf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668A3DF7-FA78-0A40-A5EC-38FEB51BC9D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8272B248-0A98-A444-AA3E-E08911DF85D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{84076746-44DA-4E99-A93B-BCEF9597C15B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{84076746-44DA-4E99-A93B-BCEF9597C15B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -7030,8 +7030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27AA5ABD-FADB-4A1B-9A28-8EA690270BF2}">
   <dimension ref="A1:CP200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="200" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A200" sqref="A200"/>
+    <sheetView tabSelected="1" topLeftCell="CD97" zoomScale="200" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="CN102" sqref="CN102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/pdf/tabla.xlsx
+++ b/pdf/tabla.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/htdocs/cnt/LAIIProg/pdf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8272B248-0A98-A444-AA3E-E08911DF85D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03ACEB1-AAF1-504A-BE81-D5BD74E060A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{84076746-44DA-4E99-A93B-BCEF9597C15B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{84076746-44DA-4E99-A93B-BCEF9597C15B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -7030,8 +7030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27AA5ABD-FADB-4A1B-9A28-8EA690270BF2}">
   <dimension ref="A1:CP200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CD97" zoomScale="200" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="CN102" sqref="CN102"/>
+    <sheetView tabSelected="1" topLeftCell="CJ94" zoomScale="200" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="CO104" sqref="CO104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12332,122 +12332,122 @@
       <c r="BC19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="BD19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BE19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BF19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BG19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BH19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BI19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BJ19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BK19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BL19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BM19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BN19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BO19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BP19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BQ19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BR19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BS19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BT19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BW19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BX19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BY19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BZ19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="CA19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="CB19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="CC19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="CD19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="CE19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="CF19" s="2" t="s">
-        <v>71</v>
+      <c r="BD19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="BE19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="BF19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="BG19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="BH19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="BI19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="BJ19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="BK19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="BL19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="BM19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="BN19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="BO19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="BP19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="BQ19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="BR19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="BS19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="BT19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="BU19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="BV19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="BW19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="BX19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="BY19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="BZ19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="CA19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="CB19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="CC19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="CD19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="CE19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="CF19" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="CG19" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="CH19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="CI19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="CJ19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="CK19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="CL19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="CM19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="CN19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="CO19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="CP19" s="2" t="s">
-        <v>71</v>
+      <c r="CH19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="CI19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="CJ19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="CK19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="CL19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="CM19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="CN19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="CO19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="CP19" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:94" ht="17" x14ac:dyDescent="0.25">
@@ -35904,122 +35904,122 @@
       <c r="BC102" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BD102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BE102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BF102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BG102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BH102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BI102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BJ102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BK102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BL102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BM102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BN102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BO102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BP102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BQ102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BR102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BS102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BT102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BW102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BX102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BY102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BZ102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="CA102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="CB102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="CC102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="CD102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="CE102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="CF102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="CG102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="CH102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="CI102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="CJ102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="CK102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="CL102" s="2" t="s">
-        <v>71</v>
+      <c r="BD102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BE102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BF102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BG102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BI102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BJ102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BK102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BL102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BN102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BO102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BP102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BQ102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BR102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BS102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BT102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BU102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BV102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BW102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BX102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BY102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="CA102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="CB102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="CC102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="CD102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="CE102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="CF102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="CG102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="CH102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="CI102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="CJ102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="CK102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="CL102" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="CM102" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="CN102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="CO102" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="CP102" s="2" t="s">
-        <v>71</v>
+      <c r="CN102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="CO102" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="CP102" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="103" spans="1:94" ht="17" x14ac:dyDescent="0.25">
@@ -37638,11 +37638,11 @@
       <c r="BM108" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BN108" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BO108" s="4" t="s">
+      <c r="BN108" s="4" t="s">
         <v>245</v>
+      </c>
+      <c r="BO108" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="BP108" s="2" t="s">
         <v>71</v>

--- a/pdf/tabla.xlsx
+++ b/pdf/tabla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/htdocs/cnt/LAIIProg/pdf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03ACEB1-AAF1-504A-BE81-D5BD74E060A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4025D7E4-6E4C-F445-9AE0-5D0B15F21946}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{84076746-44DA-4E99-A93B-BCEF9597C15B}"/>
   </bookViews>
@@ -7030,8 +7030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27AA5ABD-FADB-4A1B-9A28-8EA690270BF2}">
   <dimension ref="A1:CP200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CJ94" zoomScale="200" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="CO104" sqref="CO104"/>
+    <sheetView tabSelected="1" topLeftCell="AM14" zoomScale="200" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="AR21" sqref="AR21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12864,8 +12864,8 @@
       <c r="AQ21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AR21" s="2" t="s">
-        <v>71</v>
+      <c r="AR21" s="4" t="s">
+        <v>383</v>
       </c>
       <c r="AS21" s="4" t="s">
         <v>104</v>
